--- a/embedding_size_results.xlsx
+++ b/embedding_size_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.751138899413611</v>
+        <v>0.8240446693900854</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7730529305366673</v>
+        <v>0.8270578812257356</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7702782237681882</v>
+        <v>0.8238575883803874</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7645560139869072</v>
+        <v>0.8301967485070183</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.763608192277767</v>
+        <v>0.8317189564959502</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7694928521382824</v>
+        <v>0.8309369615063318</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,15 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7632715172038825</v>
+        <v>0.8298387116706346</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8289910097286896</v>
       </c>
     </row>
   </sheetData>
